--- a/medicine/Enfance/Sophie_Adriansen/Sophie_Adriansen.xlsx
+++ b/medicine/Enfance/Sophie_Adriansen/Sophie_Adriansen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sophie Adriansen, née en 1982 à Orléans, est une écrivaine française.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est diplômée de l'université d'Orléans, de l'université d'Aix-Marseille II et de l'ESC Lille[1].
-Membre de la Charte des auteurs et des illustrateurs jeunesse[2], elle compte également parmi les membres fondateurs de la Ligue des auteurs professionnels[3].
-Son ouvrage jeunesse Max et les poissons publié en 2015 se déroule durant la deuxième guerre mondiale[4]  et évoque l'antisémitisme[5].
-En 2018 Papa est en bas, ouvrage jeunesse écrit à la première personne par le personnage d'une petite fille[6], raconte son quotidien autour de la grave maladie dont son père est atteint[7]. Pour le site Ricochet, il « évoque avec pudeur et justesse les différentes émotions que suscite la maladie d’un proche, ainsi que les réalités éprouvantes que traverse la famille[6]. »
-Son roman ado Au poil en 2022, se penche sur les réflexions d'une jeune ado sur les injonctions sociales à l'épilation, et sa décision de ne pas s'y plier[8].
-En 2023 est publié son roman ado Hacker, autour de l'histoire d'un jeune hacker. Pour l'avis critique de Télérama « ce roman, par les codes narratifs qu’il met en jeu, est une forme de thriller, extrêmement efficace. [...] Inspirée d’un fait divers réel, cette histoire est passionnante, remarquablement racontée et mise en scène[9]. ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est diplômée de l'université d'Orléans, de l'université d'Aix-Marseille II et de l'ESC Lille.
+Membre de la Charte des auteurs et des illustrateurs jeunesse, elle compte également parmi les membres fondateurs de la Ligue des auteurs professionnels.
+Son ouvrage jeunesse Max et les poissons publié en 2015 se déroule durant la deuxième guerre mondiale  et évoque l'antisémitisme.
+En 2018 Papa est en bas, ouvrage jeunesse écrit à la première personne par le personnage d'une petite fille, raconte son quotidien autour de la grave maladie dont son père est atteint. Pour le site Ricochet, il « évoque avec pudeur et justesse les différentes émotions que suscite la maladie d’un proche, ainsi que les réalités éprouvantes que traverse la famille. »
+Son roman ado Au poil en 2022, se penche sur les réflexions d'une jeune ado sur les injonctions sociales à l'épilation, et sa décision de ne pas s'y plier.
+En 2023 est publié son roman ado Hacker, autour de l'histoire d'un jeune hacker. Pour l'avis critique de Télérama « ce roman, par les codes narratifs qu’il met en jeu, est une forme de thriller, extrêmement efficace. [...] Inspirée d’un fait divers réel, cette histoire est passionnante, remarquablement racontée et mise en scène. ».
 </t>
         </is>
       </c>
@@ -549,25 +563,109 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature générale
-Romans
-Le grand numéro (Un meeting), Paris, Éditions Storylab, 2012, 100 p. (ISBN 978-2-36315-077-6)
+          <t>Littérature générale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le grand numéro (Un meeting), Paris, Éditions Storylab, 2012, 100 p. (ISBN 978-2-36315-077-6)
 Santé !, Paris, Éditions Storylab, 2012, 62 p. (ISBN 978-2-36315-089-9)
 Quand nous serons frère et sœur, Bordeaux, Éditions Myriapode, 2013, 220 p. (ISBN 978-2-35945-019-4)
 Le Syndrome de la vitre étoilée, Paris, Éditions du Fleuve, 2016, 352 p.  (ISBN 978-2-265-11568-2)
 réédition Pocket, 2017, 384 p.  (ISBN 978-2266279499)
 Linea nigra, Paris, Éditions du Fleuve, 2017, 496 p.  (ISBN 978-2-265-11700-6)
 réédition Charleston poche, 2021, 624 p.  (ISBN 978-2368126639)
-Hystériques, Charleston, 2021, 528 p.  (ISBN 978-2368126608)
-Romans graphiques
-La Remplaçante, dessin Mathou, First éditions, 2021, 152 p.  (ISBN 978-2412066751)
+Hystériques, Charleston, 2021, 528 p.  (ISBN 978-2368126608)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sophie_Adriansen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Adriansen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature générale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Romans graphiques</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Remplaçante, dessin Mathou, First éditions, 2021, 152 p.  (ISBN 978-2412066751)
 traduction en italien (La Sostituta), Becco Giallo, 2022
 traduction en espagnol (La Sustituta), Garbuix Books, 2023
 La Vie d'adulte, dessin Eloisa Scichilone et Mauro Gandini, First éditions, 2022, 204 p.  (ISBN 978-2-412-07750-4)
 Nina Simone en BD, dessin coll., éditions Petit à Petit, 2023, 160 p.  (ISBN 9782380461589)
-traduction en anglais (États-Unis), NBM Publishing Company, 2024
-Non fiction
-Je vous emmène au bout de la ligne : tribulations et secrets d'un conducteur de métro, Paris, Éditions Max Milo, 2010, 192 p. (ISBN 978-2-315-00133-0), avec Rodolphe Macia
+traduction en anglais (États-Unis), NBM Publishing Company, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sophie_Adriansen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Adriansen</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature générale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Non fiction</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Je vous emmène au bout de la ligne : tribulations et secrets d'un conducteur de métro, Paris, Éditions Max Milo, 2010, 192 p. (ISBN 978-2-315-00133-0), avec Rodolphe Macia
 Trois années avec la SLA : de la force de l'esprit même quand le corps abandonne, Paris, Éditions de l'Officine, 2012, 160 p. (ISBN 978-2-35551-152-3), avec Jean-Paul Rouet
 Louis de Funès – Regardez-moi là, vous !, Paris, Éditions Premium, 2013, 304 p. (ISBN 978-2-35636-118-9)
 Mon sourire pour guérir : Sauvée par un veilleur de vie, Paris, Éditions Max Milo, 2013, 160 p. (ISBN 978-2-315-00481-2), avec Sandra Dal-Maso
@@ -575,14 +673,48 @@
 Naître et grandir en musique – De la conception de l'enfant à son éveil musical, Paris, Éditions Télémaque, 2016, 160 p. (ISBN 978-2-7533-0276-1), avec Jean-Marie Leau
 Une Américaine à Monaco : biographie, Paris, Éditions Charleston, 2017, 314 p. (ISBN 978-2-36812-165-8)
 Nina Simone, Mélodie de la lutte, Charleston, 2022, 224 p.  (ISBN 978-2368127315)
-Qui s'occupe des enfants ? Repenser la parentalité traditionnelle, préface d'Anna Roy, Les Pérégrines, 2023, 288 p.  (ISBN 979-10-252-0599-0)
-Littérature jeunesse
-J’ai passé l’âge de la colo !, Paris, Éditions Volpilière, 2012, 108 p. (ISBN 978-2-917898-60-4)
+Qui s'occupe des enfants ? Repenser la parentalité traditionnelle, préface d'Anna Roy, Les Pérégrines, 2023, 288 p.  (ISBN 979-10-252-0599-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sophie_Adriansen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Adriansen</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>J’ai passé l’âge de la colo !, Paris, Éditions Volpilière, 2012, 108 p. (ISBN 978-2-917898-60-4)
 Le souffle de l'ange, Paris, Nathan, coll. « L'Enigme des vacances », 2013, 120 p. (ISBN 978-2-09-187975-8) réédition 2017  (ISBN 978-2-09-193174-6)
 Drôles de familles !, Paris, Nathan, hors série coll. « L’Énigme des vacances » no 37, 2014, 192 p.  (ISBN 978-2-09-187988-8) réédition 2017  (ISBN 978-2-09-193175-3)
 La menace des fantômes (Scooby-Doo), Paris, Nathan, coll. « L’Énigme des vacances » no 44, 2015, 96 p.  (ISBN 978-2091891583) réédition 2016  (ISBN 978-2-09-193106-7)
 L'attaque des monstres animaux (Scooby-Doo), Paris, Nathan, coll. « L’Énigme des vacances » no 43, 2015, 96 p.  (ISBN 978-2091891576) réédition 2016  (ISBN 978-2-09-193105-0)
-Max et les poissons[4],[5], Paris, Nathan, 2015, 96 p.  (ISBN 978-2-09-255535-4)[10]
+Max et les poissons Paris, Nathan, 2015, 96 p.  (ISBN 978-2-09-255535-4)
 traduction en italien (Il giorno speciale di Max), illustrations Ilaria Zanellato, DeA Planeta Libri, 2020
 traduction en turc (Max’in Balıkları), éditions Yeniinsan, 2021
 édition adaptée aux lecteurs dys, Nathan Dyscool, 2020  (ISBN 978-209-2-593165)
@@ -595,7 +727,7 @@
 Tome 2 :  Un banquet plein de surprises, ill. de Roland Garrigue, 2017, 176 p.  (ISBN 978-2354884796)
 Tome 3 : Un tournoi explosif, ill. de Marie de Monti, 2018, 176 p.  (ISBN 978-2354885434)
 Tome 4 : Le Grand voyage, ill. de Marie de Monti, 2018, 176 p.  (ISBN 978-2354885984)
-La Vache de la brique de lait , ill. de Mayana Itoïz , Frimousse, 2017, 36 p.  (ISBN 978-2-35241-314-1)[11]
+La Vache de la brique de lait , ill. de Mayana Itoïz , Frimousse, 2017, 36 p.  (ISBN 978-2-35241-314-1)
 traduction en catalan (La Vaca del bric de llet) et en castillan (La Vaca del brik de leche), BiraBiro editorial, 2018
 traduction en turc (Süt Kutusundaki İnek), Uçanbalık Yayıncılık, 2018
 Série Quart de frère, quart de sœur 
@@ -603,7 +735,7 @@
 Tome 2 : Mon pire anniversaire, Slalom, 2017, 128 p.  (ISBN 978-2-37554-061-9)
 Tome 3 : Mission spectacle, Slalom, 2017, 128 p.  (ISBN 978-2375540626)
 Tome 4 : Ici Londres, Slalom, 2018, 128 p.  (ISBN 978-2375541487)
-Papa est en bas[6],[7], Paris, Nathan, 2018, 124 p.  (ISBN 978-2092577073)
+Papa est en bas Paris, Nathan, 2018, 124 p.  (ISBN 978-2092577073)
 Rackette-moi si tu peux, Gulf Stream éditeur, 2018, 64 p. (ISBN 978-2354885571)
 Lise et les hirondelles, Paris, Nathan, 2018, 240 p.  (ISBN 978-2092576069)
 Hors piste, Slalom, 2018, 144 p.  (ISBN 978-2375540947)
@@ -628,8 +760,8 @@
 Luce comprend tout trop vite, dessin Clerpée, Jungle, 2022, 64 p.  (ISBN 978-2-822-23656-0)
 L’enveloppe à soucis, Langue au chat, 2022, 32 p.  (ISBN 978-2-8063-1181-8)
 Drôles de talents, Nathan, coll. « L’Énigme des vacances » no 63, 2022, 96 p.  (ISBN 978-2-09-193536-2)
-Au poil[8], Magnard, 2022, 80 p.  (ISBN 978-2-210-975514)
-Hacker[9], La Joie de lire, 2023, 216 p.  (ISBN 978-28-89086221) - roman ado
+Au poil, Magnard, 2022, 80 p.  (ISBN 978-2-210-975514)
+Hacker, La Joie de lire, 2023, 216 p.  (ISBN 978-28-89086221) - roman ado
 Les grandes chanteuses et musiciennes vues par un ado, Poulpe Fictions, 2023, 256 p.  (ISBN 978-23-77422791)
 La Tour de Gustave, ill. Youlie, Glénat jeunesse, 2023, 48 p.  (ISBN 978-2344052815)
 Au muséum d'histoire naturelle, Nathan, coll. « L’Énigme des vacances » no 64, 2023, 96 p.  (ISBN 978-2095014988)
@@ -637,10 +769,47 @@
 Fort comme un arbre, ill. Lili La Baleine, Langue au chat, 2023, 40 p.  (ISBN 978-2806312525)
 Moi, Léo, 13 ans, auteur imposteur, Scrinéo, 2023, 336 p.  (ISBN 978-2381671826)
 Avis de tempête, ill. Lili La Baleine, Langue au chat, 2023, 40 p.  (ISBN 978-2806312785)
-Le projet arc-en-ciel, Alice jeunesse, 2023, 128 p.  (ISBN 978-2874265372)
-Nouvelles
-Recueils collectifs
-Rendez-vous manqué (coup de cœur des libraires) dans Rendez-vous, Éditions du Valhermeil
+Le projet arc-en-ciel, Alice jeunesse, 2023, 128 p.  (ISBN 978-2874265372)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sophie_Adriansen</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Adriansen</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Recueils collectifs</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Rendez-vous manqué (coup de cœur des libraires) dans Rendez-vous, Éditions du Valhermeil
 Santé ! dans Six façons de le dire, avec David Foenkinos, Mercedes Deambrosis, Christophe Ferré, Nicolas d'Estienne d'Orves, Yasmina Khadra, Éditions du Moteur, 2011, 224 p. (ISBN 978-2-91860-220-0)
 Sophie et Antonin dans Les plus belles rencontres sur Facebook, Trinôme Éditions, 2012, 169 p. (ISBN 979-10-91626-01-9)
 Seules les mères et les chanteuses de pop dans Temps additionnel, Éditions Antidata, 2012, 169 p. (ISBN 978-2-91928-504-4)
@@ -649,9 +818,47 @@
 L'amour, c'est..., illustrations de Jack Koch, Le Livre de poche, 2018, 432 p. (ISBN 978-2253188315)
 Les artistes habitent-ils quelque part ?, édité et préfacé par Coline Pierré et Martin Page, Monstrograph, 2021, 128 p.  (ISBN 978-2-9565361-8-5)
 Monkey Palace dans Elle est le vent furieux, avec Marie Pavlenko, Marie Alhinho, Coline Pierré, Cindy Van Wilder, Flore Vesco, Editions Flammarion, 2021, 320 p.  (ISBN 9782080233943)
-Trois cœurs dans Dans les yeux d’un animal, Editions Auzou, 2022, 168 p.  (ISBN 978-2-7338-9511-5)
-Revues littéraires
-Dans le noir dans la revue Pr'Ose no 17 [Une île], 2011
+Trois cœurs dans Dans les yeux d’un animal, Editions Auzou, 2022, 168 p.  (ISBN 978-2-7338-9511-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sophie_Adriansen</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Adriansen</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Revues littéraires</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dans le noir dans la revue Pr'Ose no 17 [Une île], 2011
 Troisième visite dans la revue Dissonances no 20 [Maman], 2011
 Frapper fort dans la revue Bordel no 16 [Foot], Stéphane Million éditeur, 2012
 Des adieux éphémères (cadavre exquis) dans la revue l’Ampoule no 3 [Gloire et oubli], Éditions de l’Abat-jour, 2012
@@ -659,95 +866,101 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sophie_Adriansen</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sophie_Adriansen</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sophie_Adriansen</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Adriansen</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Adaptation de son œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Max et les poissons, roman adapté pour le théâtre avec le soutien de la LICRA Touraine (juin 2016)[12], et joué en théâtre d'objets par le Compagnie Ki avec le soutien de la médiathèque départementale des Pyrénées Orientales (2017/2018)[13].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max et les poissons, roman adapté pour le théâtre avec le soutien de la LICRA Touraine (juin 2016), et joué en théâtre d'objets par le Compagnie Ki avec le soutien de la médiathèque départementale des Pyrénées Orientales (2017/2018).
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sophie_Adriansen</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sophie_Adriansen</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sophie_Adriansen</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Adriansen</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Son roman Max et les poissons est sélectionné pour plusieurs prix littéraires jeunesse, dont le Prix Gulli du roman 2015, le Prix Livrentête 2016, ou le Prix des Incorruptibles 2016-2017.
 Son roman graphique Rackette-moi si tu peux est le lauréat du prix Bull'gomme 53 2020.</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sophie_Adriansen</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sophie_Adriansen</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sophie_Adriansen</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Adriansen</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Audio et braille</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs romans de Sophie Adriansen sont disponibles à la Bibliothèque Numérique Francophone Accessible[14], dans les Bibliothèques Sonores de l'association des Donneurs de voix[15] et à la médiathèque Valentin Haüy[16]. Sophie Adriansen a notamment donné sa voix pour l'enregistrement de Je vous emmène au bout de la ligne[17] et de Max et les poissons[18].
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs romans de Sophie Adriansen sont disponibles à la Bibliothèque Numérique Francophone Accessible, dans les Bibliothèques Sonores de l'association des Donneurs de voix et à la médiathèque Valentin Haüy. Sophie Adriansen a notamment donné sa voix pour l'enregistrement de Je vous emmène au bout de la ligne et de Max et les poissons.
 Plusieurs de ses histoires parues chez Nathan ont été adaptées en braille par les éditions Mes mains en or.
 </t>
         </is>
